--- a/zzz_lib/code and data/data/Excel/metrics_national_care_gini.xlsx
+++ b/zzz_lib/code and data/data/Excel/metrics_national_care_gini.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9eaf80618f9c5e5a/Work Items/TheCareBoard/zzz_lib/code and data/data/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{66F1085D-9988-4720-8796-66EA36F1376D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{03B04C33-A5C3-47FE-A69C-FFA027421461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{13446AA4-B11F-4DA1-85EA-C15D17D50674}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{4B7953FB-F96C-4E03-9401-5443DCC7788D}"/>
   </bookViews>
   <sheets>
     <sheet name="metrics_national_care_gini" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,333 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>date</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="109">
+  <si>
+    <t>year</t>
   </si>
   <si>
     <t>gini_national</t>
+  </si>
+  <si>
+    <t>stname</t>
+  </si>
+  <si>
+    <t>National</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>Alabama, East South Central, South, United States</t>
+  </si>
+  <si>
+    <t>Alaska</t>
+  </si>
+  <si>
+    <t>Alaska, Pacific, West, United States</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>Arizona, Mountain, West, United States</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
+    <t>Arkansas, West South Central, South, United States</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>California, Pacific, West, United States</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>Colorado, Mountain, West, United States</t>
+  </si>
+  <si>
+    <t>Connecticut</t>
+  </si>
+  <si>
+    <t>Connecticut, New England, Northeast, United States</t>
+  </si>
+  <si>
+    <t>Delaware</t>
+  </si>
+  <si>
+    <t>Delaware, South Atlantic, South, United States</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>District of Columbia</t>
+  </si>
+  <si>
+    <t>District of Columbia, South Atlantic, South, United States</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>Florida, South Atlantic, South, United States</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Georgia, South Atlantic, South, United States</t>
+  </si>
+  <si>
+    <t>Hawaii</t>
+  </si>
+  <si>
+    <t>Hawaii, Pacific, West, United States</t>
+  </si>
+  <si>
+    <t>Idaho</t>
+  </si>
+  <si>
+    <t>Idaho, Mountain, West, United States</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>Illinois, East North Central, Midwest, United States</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>Indiana, East North Central, Midwest, United States</t>
+  </si>
+  <si>
+    <t>Iowa</t>
+  </si>
+  <si>
+    <t>Iowa, West North Central, Midwest, United States</t>
+  </si>
+  <si>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t>Kansas, West North Central, Midwest, United States</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
+    <t>Kentucky, East South Central, South, United States</t>
+  </si>
+  <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
+    <t>Louisiana, West South Central, South, United States</t>
+  </si>
+  <si>
+    <t>Maine</t>
+  </si>
+  <si>
+    <t>Maine, New England, Northeast, United States</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>Maryland, South Atlantic, South, United States</t>
+  </si>
+  <si>
+    <t>Massachusetts</t>
+  </si>
+  <si>
+    <t>Massachusetts, New England, Northeast, United States</t>
+  </si>
+  <si>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t>Michigan, East North Central, Midwest, United States</t>
+  </si>
+  <si>
+    <t>Minnesota</t>
+  </si>
+  <si>
+    <t>Minnesota, West North Central, Midwest, United States</t>
+  </si>
+  <si>
+    <t>Mississippi</t>
+  </si>
+  <si>
+    <t>Mississippi, East South Central, South, United States</t>
+  </si>
+  <si>
+    <t>Missouri</t>
+  </si>
+  <si>
+    <t>Missouri, West North Central, Midwest, United States</t>
+  </si>
+  <si>
+    <t>Montana</t>
+  </si>
+  <si>
+    <t>Montana, Mountain, West, United States</t>
+  </si>
+  <si>
+    <t>Nebraska</t>
+  </si>
+  <si>
+    <t>Nebraska, West North Central, Midwest, United States</t>
+  </si>
+  <si>
+    <t>Nevada</t>
+  </si>
+  <si>
+    <t>Nevada, Mountain, West, United States</t>
+  </si>
+  <si>
+    <t>New Hampshire</t>
+  </si>
+  <si>
+    <t>New Hampshire, New England, Northeast, United States</t>
+  </si>
+  <si>
+    <t>New Jersey</t>
+  </si>
+  <si>
+    <t>New Jersey, Middle Atlantic, Northeast, United States</t>
+  </si>
+  <si>
+    <t>New Mexico</t>
+  </si>
+  <si>
+    <t>New Mexico, Mountain, West, United States</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>New York, Middle Atlantic, Northeast, United States</t>
+  </si>
+  <si>
+    <t>North Carolina</t>
+  </si>
+  <si>
+    <t>North Carolina, South Atlantic, South, United States</t>
+  </si>
+  <si>
+    <t>North Dakota</t>
+  </si>
+  <si>
+    <t>North Dakota, West North Central, Midwest, United States</t>
+  </si>
+  <si>
+    <t>Ohio</t>
+  </si>
+  <si>
+    <t>Ohio, East North Central, Midwest, United States</t>
+  </si>
+  <si>
+    <t>Oklahoma</t>
+  </si>
+  <si>
+    <t>Oklahoma, West South Central, South, United States</t>
+  </si>
+  <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t>Oregon, Pacific, West, United States</t>
+  </si>
+  <si>
+    <t>Pennsylvania</t>
+  </si>
+  <si>
+    <t>Pennsylvania, Middle Atlantic, Northeast, United States</t>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+  </si>
+  <si>
+    <t>Puerto Rico Commonwealth</t>
+  </si>
+  <si>
+    <t>Rhode Island</t>
+  </si>
+  <si>
+    <t>Rhode Island, New England, Northeast, United States</t>
+  </si>
+  <si>
+    <t>South Carolina</t>
+  </si>
+  <si>
+    <t>South Carolina, South Atlantic, South, United States</t>
+  </si>
+  <si>
+    <t>South Dakota</t>
+  </si>
+  <si>
+    <t>South Dakota, West North Central, Midwest, United States</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>Tennessee, East South Central, South, United States</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>Texas, West South Central, South, United States</t>
+  </si>
+  <si>
+    <t>Utah</t>
+  </si>
+  <si>
+    <t>Utah, Mountain, West, United States</t>
+  </si>
+  <si>
+    <t>Vermont</t>
+  </si>
+  <si>
+    <t>Vermont, New England, Northeast, United States</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>Virginia, South Atlantic, South, United States</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>Washington, Pacific, West, United States</t>
+  </si>
+  <si>
+    <t>West Virginia</t>
+  </si>
+  <si>
+    <t>West Virginia, South Atlantic, South, United States</t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
+  </si>
+  <si>
+    <t>Wisconsin, East North Central, Midwest, United States</t>
+  </si>
+  <si>
+    <t>Wyoming</t>
+  </si>
+  <si>
+    <t>Wyoming, Mountain, West, United States</t>
   </si>
 </sst>
 </file>
@@ -509,9 +830,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -886,53 +1206,5181 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8BD3929-BB77-4A56-87B4-BB299F3037F6}">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{396B2B81-E764-4373-89DA-1B44233DCD72}">
+  <dimension ref="A1:C470"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>43831</v>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2015</v>
       </c>
       <c r="B2">
+        <v>0.70147891507475701</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2016</v>
+      </c>
+      <c r="B3">
+        <v>0.70049367171835897</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2017</v>
+      </c>
+      <c r="B4">
+        <v>0.69945540717787502</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2018</v>
+      </c>
+      <c r="B5">
+        <v>0.70099462994059003</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2019</v>
+      </c>
+      <c r="B6">
+        <v>0.70051332630198404</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2020</v>
+      </c>
+      <c r="B7">
         <v>0.69977070488764104</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>44197</v>
-      </c>
-      <c r="B3">
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2021</v>
+      </c>
+      <c r="B8">
         <v>0.69895519106563597</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>44562</v>
-      </c>
-      <c r="B4">
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2022</v>
+      </c>
+      <c r="B9">
         <v>0.69226062568694102</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>44927</v>
-      </c>
-      <c r="B5">
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2023</v>
+      </c>
+      <c r="B10">
         <v>0.68999168905403496</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2016</v>
+      </c>
+      <c r="B11">
+        <v>0.66996950758406404</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2017</v>
+      </c>
+      <c r="B12">
+        <v>0.67342712423595197</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2018</v>
+      </c>
+      <c r="B13">
+        <v>0.646663997770897</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2019</v>
+      </c>
+      <c r="B14">
+        <v>0.67155352999393603</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2020</v>
+      </c>
+      <c r="B15">
+        <v>0.67265210441592604</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2021</v>
+      </c>
+      <c r="B16">
+        <v>0.64583643244254396</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2022</v>
+      </c>
+      <c r="B17">
+        <v>0.64208932171602195</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2023</v>
+      </c>
+      <c r="B18">
+        <v>0.63661988518304202</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2015</v>
+      </c>
+      <c r="B19">
+        <v>0.64597425801236896</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2016</v>
+      </c>
+      <c r="B20">
+        <v>0.56846153898449903</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2017</v>
+      </c>
+      <c r="B21">
+        <v>0.59921393967925196</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2018</v>
+      </c>
+      <c r="B22">
+        <v>0.59786715561391401</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2019</v>
+      </c>
+      <c r="B23">
+        <v>0.60822807264635204</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2020</v>
+      </c>
+      <c r="B24">
+        <v>0.59101743859337796</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2021</v>
+      </c>
+      <c r="B25">
+        <v>0.54682728035317696</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2022</v>
+      </c>
+      <c r="B26">
+        <v>0.58146528066055803</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2023</v>
+      </c>
+      <c r="B27">
+        <v>0.58543293029246901</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2015</v>
+      </c>
+      <c r="B28">
+        <v>0.57880868593547297</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2016</v>
+      </c>
+      <c r="B29">
+        <v>0.56231425043941996</v>
+      </c>
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2017</v>
+      </c>
+      <c r="B30">
+        <v>0.56467309517366604</v>
+      </c>
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2018</v>
+      </c>
+      <c r="B31">
+        <v>0.56820513651437199</v>
+      </c>
+      <c r="C31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>2019</v>
+      </c>
+      <c r="B32">
+        <v>0.56803632870338105</v>
+      </c>
+      <c r="C32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>2020</v>
+      </c>
+      <c r="B33">
+        <v>0.56784716258089896</v>
+      </c>
+      <c r="C33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>2021</v>
+      </c>
+      <c r="B34">
+        <v>0.56910079214068898</v>
+      </c>
+      <c r="C34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>2022</v>
+      </c>
+      <c r="B35">
+        <v>0.57187809577706095</v>
+      </c>
+      <c r="C35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2023</v>
+      </c>
+      <c r="B36">
+        <v>0.57276084919662595</v>
+      </c>
+      <c r="C36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>2015</v>
+      </c>
+      <c r="B37">
+        <v>0.56433478537487403</v>
+      </c>
+      <c r="C37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>2016</v>
+      </c>
+      <c r="B38">
+        <v>0.65929963862542296</v>
+      </c>
+      <c r="C38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>2017</v>
+      </c>
+      <c r="B39">
+        <v>0.65661857954000002</v>
+      </c>
+      <c r="C39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>2018</v>
+      </c>
+      <c r="B40">
+        <v>0.652804026727003</v>
+      </c>
+      <c r="C40" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>2019</v>
+      </c>
+      <c r="B41">
+        <v>0.64815006424147603</v>
+      </c>
+      <c r="C41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>2020</v>
+      </c>
+      <c r="B42">
+        <v>0.64888570148814895</v>
+      </c>
+      <c r="C42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>2021</v>
+      </c>
+      <c r="B43">
+        <v>0.64937749289767399</v>
+      </c>
+      <c r="C43" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>2022</v>
+      </c>
+      <c r="B44">
+        <v>0.659162632070452</v>
+      </c>
+      <c r="C44" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>2023</v>
+      </c>
+      <c r="B45">
+        <v>0.65782840069084003</v>
+      </c>
+      <c r="C45" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>2015</v>
+      </c>
+      <c r="B46">
+        <v>0.65815867137499295</v>
+      </c>
+      <c r="C46" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>2016</v>
+      </c>
+      <c r="B47">
+        <v>0.60138086226145304</v>
+      </c>
+      <c r="C47" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>2017</v>
+      </c>
+      <c r="B48">
+        <v>0.59886359795612898</v>
+      </c>
+      <c r="C48" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>2018</v>
+      </c>
+      <c r="B49">
+        <v>0.59885331072419601</v>
+      </c>
+      <c r="C49" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>2019</v>
+      </c>
+      <c r="B50">
+        <v>0.59796289422994098</v>
+      </c>
+      <c r="C50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>2020</v>
+      </c>
+      <c r="B51">
+        <v>0.59887506309923799</v>
+      </c>
+      <c r="C51" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>2021</v>
+      </c>
+      <c r="B52">
+        <v>0.60106637627297099</v>
+      </c>
+      <c r="C52" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>2022</v>
+      </c>
+      <c r="B53">
+        <v>0.59448158278678498</v>
+      </c>
+      <c r="C53" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>2023</v>
+      </c>
+      <c r="B54">
+        <v>0.59134321000725398</v>
+      </c>
+      <c r="C54" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>2015</v>
+      </c>
+      <c r="B55">
+        <v>0.60267379477565797</v>
+      </c>
+      <c r="C55" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>2016</v>
+      </c>
+      <c r="B56">
+        <v>0.39823817335983902</v>
+      </c>
+      <c r="C56" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>2017</v>
+      </c>
+      <c r="B57">
+        <v>0.39237556043912702</v>
+      </c>
+      <c r="C57" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>2018</v>
+      </c>
+      <c r="B58">
+        <v>0.40453899098486601</v>
+      </c>
+      <c r="C58" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>2019</v>
+      </c>
+      <c r="B59">
+        <v>0.394866386917956</v>
+      </c>
+      <c r="C59" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>2020</v>
+      </c>
+      <c r="B60">
+        <v>0.39415400202445899</v>
+      </c>
+      <c r="C60" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>2021</v>
+      </c>
+      <c r="B61">
+        <v>0.399050594684071</v>
+      </c>
+      <c r="C61" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>2022</v>
+      </c>
+      <c r="B62">
+        <v>0.39618689512508598</v>
+      </c>
+      <c r="C62" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>2023</v>
+      </c>
+      <c r="B63">
+        <v>0.394976664719357</v>
+      </c>
+      <c r="C63" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>2015</v>
+      </c>
+      <c r="B64">
+        <v>0.41293649298592999</v>
+      </c>
+      <c r="C64" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>2016</v>
+      </c>
+      <c r="B65">
+        <v>0.28464255709105202</v>
+      </c>
+      <c r="C65" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>2017</v>
+      </c>
+      <c r="B66">
+        <v>0.28053086306936698</v>
+      </c>
+      <c r="C66" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>2018</v>
+      </c>
+      <c r="B67">
+        <v>0.279657014326742</v>
+      </c>
+      <c r="C67" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>2019</v>
+      </c>
+      <c r="B68">
+        <v>0.27386494578102299</v>
+      </c>
+      <c r="C68" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>2015</v>
+      </c>
+      <c r="B69">
+        <v>0.28542084402928403</v>
+      </c>
+      <c r="C69" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>2016</v>
+      </c>
+      <c r="B70">
+        <v>0.53390496229862405</v>
+      </c>
+      <c r="C70" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>2017</v>
+      </c>
+      <c r="B71">
+        <v>0.565150685729777</v>
+      </c>
+      <c r="C71" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>2018</v>
+      </c>
+      <c r="B72">
+        <v>0.57767087051309896</v>
+      </c>
+      <c r="C72" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>2019</v>
+      </c>
+      <c r="B73">
+        <v>0.58651512274920103</v>
+      </c>
+      <c r="C73" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>2020</v>
+      </c>
+      <c r="B74">
+        <v>0.51666662208940195</v>
+      </c>
+      <c r="C74" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>2021</v>
+      </c>
+      <c r="B75">
+        <v>0.57934967503977797</v>
+      </c>
+      <c r="C75" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>2022</v>
+      </c>
+      <c r="B76">
+        <v>0.58299839995107905</v>
+      </c>
+      <c r="C76" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>2023</v>
+      </c>
+      <c r="B77">
+        <v>0.57755830432377697</v>
+      </c>
+      <c r="C77" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>2015</v>
+      </c>
+      <c r="B78">
+        <v>0.54661861718982696</v>
+      </c>
+      <c r="C78" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>2016</v>
+      </c>
+      <c r="B79" t="s">
+        <v>20</v>
+      </c>
+      <c r="C79" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>2017</v>
+      </c>
+      <c r="B80" t="s">
+        <v>20</v>
+      </c>
+      <c r="C80" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>2018</v>
+      </c>
+      <c r="B81" t="s">
+        <v>20</v>
+      </c>
+      <c r="C81" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>2019</v>
+      </c>
+      <c r="B82" t="s">
+        <v>20</v>
+      </c>
+      <c r="C82" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>2020</v>
+      </c>
+      <c r="B83" t="s">
+        <v>20</v>
+      </c>
+      <c r="C83" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>2021</v>
+      </c>
+      <c r="B84" t="s">
+        <v>20</v>
+      </c>
+      <c r="C84" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>2022</v>
+      </c>
+      <c r="B85" t="s">
+        <v>20</v>
+      </c>
+      <c r="C85" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>2023</v>
+      </c>
+      <c r="B86" t="s">
+        <v>20</v>
+      </c>
+      <c r="C86" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>2015</v>
+      </c>
+      <c r="B87" t="s">
+        <v>20</v>
+      </c>
+      <c r="C87" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>2016</v>
+      </c>
+      <c r="B88">
+        <v>0.46898657709851999</v>
+      </c>
+      <c r="C88" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>2017</v>
+      </c>
+      <c r="B89">
+        <v>0.46883541473512003</v>
+      </c>
+      <c r="C89" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>2018</v>
+      </c>
+      <c r="B90">
+        <v>0.470231162058946</v>
+      </c>
+      <c r="C90" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>2019</v>
+      </c>
+      <c r="B91">
+        <v>0.468821997065761</v>
+      </c>
+      <c r="C91" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>2020</v>
+      </c>
+      <c r="B92">
+        <v>0.46854213665288602</v>
+      </c>
+      <c r="C92" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>2021</v>
+      </c>
+      <c r="B93">
+        <v>0.46696587697398201</v>
+      </c>
+      <c r="C93" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>2022</v>
+      </c>
+      <c r="B94">
+        <v>0.46863259042722399</v>
+      </c>
+      <c r="C94" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>2023</v>
+      </c>
+      <c r="B95">
+        <v>0.46719943121302199</v>
+      </c>
+      <c r="C95" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>2015</v>
+      </c>
+      <c r="B96">
+        <v>0.47209481669983799</v>
+      </c>
+      <c r="C96" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>2016</v>
+      </c>
+      <c r="B97">
+        <v>0.623126234524078</v>
+      </c>
+      <c r="C97" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>2017</v>
+      </c>
+      <c r="B98">
+        <v>0.62291980077581499</v>
+      </c>
+      <c r="C98" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>2018</v>
+      </c>
+      <c r="B99">
+        <v>0.627613559388426</v>
+      </c>
+      <c r="C99" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>2019</v>
+      </c>
+      <c r="B100">
+        <v>0.63649600808242102</v>
+      </c>
+      <c r="C100" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>2020</v>
+      </c>
+      <c r="B101">
+        <v>0.63225956312872</v>
+      </c>
+      <c r="C101" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>2021</v>
+      </c>
+      <c r="B102">
+        <v>0.63116929668012001</v>
+      </c>
+      <c r="C102" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>2022</v>
+      </c>
+      <c r="B103">
+        <v>0.63365773093677202</v>
+      </c>
+      <c r="C103" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>2023</v>
+      </c>
+      <c r="B104">
+        <v>0.630858635709029</v>
+      </c>
+      <c r="C104" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>2015</v>
+      </c>
+      <c r="B105">
+        <v>0.62409344542327405</v>
+      </c>
+      <c r="C105" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>2016</v>
+      </c>
+      <c r="B106">
+        <v>0.54302736674105601</v>
+      </c>
+      <c r="C106" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>2017</v>
+      </c>
+      <c r="B107">
+        <v>0.54386342470533</v>
+      </c>
+      <c r="C107" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>2018</v>
+      </c>
+      <c r="B108">
+        <v>0.54832665905683797</v>
+      </c>
+      <c r="C108" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>2019</v>
+      </c>
+      <c r="B109">
+        <v>0.53244588443865903</v>
+      </c>
+      <c r="C109" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>2020</v>
+      </c>
+      <c r="B110">
+        <v>0.52936272018041597</v>
+      </c>
+      <c r="C110" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>2021</v>
+      </c>
+      <c r="B111">
+        <v>0.53495469500747095</v>
+      </c>
+      <c r="C111" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>2022</v>
+      </c>
+      <c r="B112">
+        <v>0.53505532752970897</v>
+      </c>
+      <c r="C112" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>2023</v>
+      </c>
+      <c r="B113">
+        <v>0.53536637621448602</v>
+      </c>
+      <c r="C113" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>2015</v>
+      </c>
+      <c r="B114">
+        <v>0.54244593562425503</v>
+      </c>
+      <c r="C114" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>2016</v>
+      </c>
+      <c r="B115">
+        <v>0.67314306552901304</v>
+      </c>
+      <c r="C115" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>2017</v>
+      </c>
+      <c r="B116">
+        <v>0.66681040784291201</v>
+      </c>
+      <c r="C116" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>2018</v>
+      </c>
+      <c r="B117">
+        <v>0.66535313306299504</v>
+      </c>
+      <c r="C117" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>2019</v>
+      </c>
+      <c r="B118">
+        <v>0.67011996815587505</v>
+      </c>
+      <c r="C118" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>2020</v>
+      </c>
+      <c r="B119">
+        <v>0.65851664758154704</v>
+      </c>
+      <c r="C119" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>2021</v>
+      </c>
+      <c r="B120">
+        <v>0.66373041346387895</v>
+      </c>
+      <c r="C120" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>2022</v>
+      </c>
+      <c r="B121">
+        <v>0.61776721391231704</v>
+      </c>
+      <c r="C121" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>2023</v>
+      </c>
+      <c r="B122">
+        <v>0.62038477874555698</v>
+      </c>
+      <c r="C122" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>2015</v>
+      </c>
+      <c r="B123">
+        <v>0.68587245232546101</v>
+      </c>
+      <c r="C123" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>2016</v>
+      </c>
+      <c r="B124">
+        <v>0.66057050405552398</v>
+      </c>
+      <c r="C124" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>2017</v>
+      </c>
+      <c r="B125">
+        <v>0.659429980548912</v>
+      </c>
+      <c r="C125" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>2018</v>
+      </c>
+      <c r="B126">
+        <v>0.65707224200937597</v>
+      </c>
+      <c r="C126" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>2019</v>
+      </c>
+      <c r="B127">
+        <v>0.65797184795138797</v>
+      </c>
+      <c r="C127" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>2020</v>
+      </c>
+      <c r="B128">
+        <v>0.65607290789999295</v>
+      </c>
+      <c r="C128" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>2021</v>
+      </c>
+      <c r="B129">
+        <v>0.65768438143568597</v>
+      </c>
+      <c r="C129" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>2022</v>
+      </c>
+      <c r="B130">
+        <v>0.65820549821573204</v>
+      </c>
+      <c r="C130" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>2023</v>
+      </c>
+      <c r="B131">
+        <v>0.65792538229108199</v>
+      </c>
+      <c r="C131" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>2015</v>
+      </c>
+      <c r="B132">
+        <v>0.65882813831165898</v>
+      </c>
+      <c r="C132" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>2016</v>
+      </c>
+      <c r="B133">
+        <v>0.68581551024756504</v>
+      </c>
+      <c r="C133" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>2017</v>
+      </c>
+      <c r="B134">
+        <v>0.68738616100287198</v>
+      </c>
+      <c r="C134" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>2018</v>
+      </c>
+      <c r="B135">
+        <v>0.68941723788588405</v>
+      </c>
+      <c r="C135" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>2019</v>
+      </c>
+      <c r="B136">
+        <v>0.69046271576693496</v>
+      </c>
+      <c r="C136" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>2020</v>
+      </c>
+      <c r="B137">
+        <v>0.68817355901751798</v>
+      </c>
+      <c r="C137" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>2021</v>
+      </c>
+      <c r="B138">
+        <v>0.68924828831387897</v>
+      </c>
+      <c r="C138" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>2022</v>
+      </c>
+      <c r="B139">
+        <v>0.66282127225072496</v>
+      </c>
+      <c r="C139" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>2023</v>
+      </c>
+      <c r="B140">
+        <v>0.65891382923460295</v>
+      </c>
+      <c r="C140" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>2015</v>
+      </c>
+      <c r="B141">
+        <v>0.69141716418963695</v>
+      </c>
+      <c r="C141" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>2016</v>
+      </c>
+      <c r="B142">
+        <v>0.62530746736581599</v>
+      </c>
+      <c r="C142" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>2017</v>
+      </c>
+      <c r="B143">
+        <v>0.62454500983777705</v>
+      </c>
+      <c r="C143" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>2018</v>
+      </c>
+      <c r="B144">
+        <v>0.67316356326980298</v>
+      </c>
+      <c r="C144" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>2019</v>
+      </c>
+      <c r="B145">
+        <v>0.673847213915858</v>
+      </c>
+      <c r="C145" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>2020</v>
+      </c>
+      <c r="B146">
+        <v>0.66975802200258705</v>
+      </c>
+      <c r="C146" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>2021</v>
+      </c>
+      <c r="B147">
+        <v>0.66442874202763702</v>
+      </c>
+      <c r="C147" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>2022</v>
+      </c>
+      <c r="B148">
+        <v>0.66553072552802395</v>
+      </c>
+      <c r="C148" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>2023</v>
+      </c>
+      <c r="B149">
+        <v>0.66660601760403504</v>
+      </c>
+      <c r="C149" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>2015</v>
+      </c>
+      <c r="B150">
+        <v>0.61783762372809603</v>
+      </c>
+      <c r="C150" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>2016</v>
+      </c>
+      <c r="B151">
+        <v>0.59884989381685205</v>
+      </c>
+      <c r="C151" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>2017</v>
+      </c>
+      <c r="B152">
+        <v>0.61654173387031996</v>
+      </c>
+      <c r="C152" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>2018</v>
+      </c>
+      <c r="B153">
+        <v>0.62082536013120604</v>
+      </c>
+      <c r="C153" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>2019</v>
+      </c>
+      <c r="B154">
+        <v>0.62714142574649601</v>
+      </c>
+      <c r="C154" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>2020</v>
+      </c>
+      <c r="B155">
+        <v>0.62830616592064303</v>
+      </c>
+      <c r="C155" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>2021</v>
+      </c>
+      <c r="B156">
+        <v>0.62513818537403099</v>
+      </c>
+      <c r="C156" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>2022</v>
+      </c>
+      <c r="B157">
+        <v>0.60060482370758805</v>
+      </c>
+      <c r="C157" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>2023</v>
+      </c>
+      <c r="B158">
+        <v>0.60310604732191897</v>
+      </c>
+      <c r="C158" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>2015</v>
+      </c>
+      <c r="B159">
+        <v>0.601900078272539</v>
+      </c>
+      <c r="C159" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>2016</v>
+      </c>
+      <c r="B160">
+        <v>0.76474110660147099</v>
+      </c>
+      <c r="C160" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>2017</v>
+      </c>
+      <c r="B161">
+        <v>0.76510985213878802</v>
+      </c>
+      <c r="C161" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>2018</v>
+      </c>
+      <c r="B162">
+        <v>0.76075999600986599</v>
+      </c>
+      <c r="C162" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>2019</v>
+      </c>
+      <c r="B163">
+        <v>0.76273074166716504</v>
+      </c>
+      <c r="C163" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>2020</v>
+      </c>
+      <c r="B164">
+        <v>0.75920673473744105</v>
+      </c>
+      <c r="C164" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>2021</v>
+      </c>
+      <c r="B165">
+        <v>0.76250588332743197</v>
+      </c>
+      <c r="C165" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>2022</v>
+      </c>
+      <c r="B166">
+        <v>0.76052486670379404</v>
+      </c>
+      <c r="C166" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>2023</v>
+      </c>
+      <c r="B167">
+        <v>0.76118140131682399</v>
+      </c>
+      <c r="C167" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>2015</v>
+      </c>
+      <c r="B168">
+        <v>0.765252782085173</v>
+      </c>
+      <c r="C168" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>2016</v>
+      </c>
+      <c r="B169">
+        <v>0.54344792493273797</v>
+      </c>
+      <c r="C169" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>2017</v>
+      </c>
+      <c r="B170">
+        <v>0.540599164260812</v>
+      </c>
+      <c r="C170" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>2018</v>
+      </c>
+      <c r="B171">
+        <v>0.54563449474802195</v>
+      </c>
+      <c r="C171" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>2019</v>
+      </c>
+      <c r="B172">
+        <v>0.56045401732673805</v>
+      </c>
+      <c r="C172" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>2020</v>
+      </c>
+      <c r="B173">
+        <v>0.53612359687459199</v>
+      </c>
+      <c r="C173" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>2021</v>
+      </c>
+      <c r="B174">
+        <v>0.540930428975682</v>
+      </c>
+      <c r="C174" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>2022</v>
+      </c>
+      <c r="B175">
+        <v>0.54648944411472</v>
+      </c>
+      <c r="C175" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>2023</v>
+      </c>
+      <c r="B176">
+        <v>0.56120642097552798</v>
+      </c>
+      <c r="C176" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>2015</v>
+      </c>
+      <c r="B177">
+        <v>0.54570196273163796</v>
+      </c>
+      <c r="C177" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>2016</v>
+      </c>
+      <c r="B178">
+        <v>0.50793131674756897</v>
+      </c>
+      <c r="C178" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>2017</v>
+      </c>
+      <c r="B179">
+        <v>0.50677024627641098</v>
+      </c>
+      <c r="C179" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>2018</v>
+      </c>
+      <c r="B180">
+        <v>0.51881364138852104</v>
+      </c>
+      <c r="C180" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>2019</v>
+      </c>
+      <c r="B181">
+        <v>0.53562093855561499</v>
+      </c>
+      <c r="C181" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>2020</v>
+      </c>
+      <c r="B182">
+        <v>0.55131121320772503</v>
+      </c>
+      <c r="C182" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>2021</v>
+      </c>
+      <c r="B183">
+        <v>0.46652961039920199</v>
+      </c>
+      <c r="C183" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>2022</v>
+      </c>
+      <c r="B184">
+        <v>0.472365142714885</v>
+      </c>
+      <c r="C184" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>2023</v>
+      </c>
+      <c r="B185">
+        <v>0.48343287001206298</v>
+      </c>
+      <c r="C185" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>2015</v>
+      </c>
+      <c r="B186">
+        <v>0.48988371499994399</v>
+      </c>
+      <c r="C186" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>2016</v>
+      </c>
+      <c r="B187">
+        <v>0.45660987436691802</v>
+      </c>
+      <c r="C187" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>2017</v>
+      </c>
+      <c r="B188">
+        <v>0.46094695217134901</v>
+      </c>
+      <c r="C188" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>2018</v>
+      </c>
+      <c r="B189">
+        <v>0.46606926497247803</v>
+      </c>
+      <c r="C189" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>2019</v>
+      </c>
+      <c r="B190">
+        <v>0.46894985190688698</v>
+      </c>
+      <c r="C190" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>2020</v>
+      </c>
+      <c r="B191">
+        <v>0.46902655336342602</v>
+      </c>
+      <c r="C191" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>2021</v>
+      </c>
+      <c r="B192">
+        <v>0.477091520698187</v>
+      </c>
+      <c r="C192" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>2022</v>
+      </c>
+      <c r="B193">
+        <v>0.48872776488494901</v>
+      </c>
+      <c r="C193" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>2023</v>
+      </c>
+      <c r="B194">
+        <v>0.47727894287146999</v>
+      </c>
+      <c r="C194" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>2015</v>
+      </c>
+      <c r="B195">
+        <v>0.45608223899507999</v>
+      </c>
+      <c r="C195" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>2016</v>
+      </c>
+      <c r="B196">
+        <v>0.34590304358324397</v>
+      </c>
+      <c r="C196" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>2017</v>
+      </c>
+      <c r="B197">
+        <v>0.34384336142751099</v>
+      </c>
+      <c r="C197" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>2018</v>
+      </c>
+      <c r="B198">
+        <v>0.34345811207434701</v>
+      </c>
+      <c r="C198" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>2019</v>
+      </c>
+      <c r="B199">
+        <v>0.35059400225042098</v>
+      </c>
+      <c r="C199" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>2020</v>
+      </c>
+      <c r="B200">
+        <v>0.34485554106518701</v>
+      </c>
+      <c r="C200" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>2021</v>
+      </c>
+      <c r="B201">
+        <v>0.34856600376087399</v>
+      </c>
+      <c r="C201" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>2022</v>
+      </c>
+      <c r="B202">
+        <v>0.35862248829640903</v>
+      </c>
+      <c r="C202" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>2023</v>
+      </c>
+      <c r="B203">
+        <v>0.36180668365382601</v>
+      </c>
+      <c r="C203" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>2015</v>
+      </c>
+      <c r="B204">
+        <v>0.35234218679769702</v>
+      </c>
+      <c r="C204" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>2016</v>
+      </c>
+      <c r="B205">
+        <v>0.60057384719175999</v>
+      </c>
+      <c r="C205" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>2017</v>
+      </c>
+      <c r="B206">
+        <v>0.59965464564724003</v>
+      </c>
+      <c r="C206" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>2018</v>
+      </c>
+      <c r="B207">
+        <v>0.59833511516197702</v>
+      </c>
+      <c r="C207" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>2019</v>
+      </c>
+      <c r="B208">
+        <v>0.59664737222350295</v>
+      </c>
+      <c r="C208" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>2020</v>
+      </c>
+      <c r="B209">
+        <v>0.59416625640278298</v>
+      </c>
+      <c r="C209" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>2021</v>
+      </c>
+      <c r="B210">
+        <v>0.59073469648289501</v>
+      </c>
+      <c r="C210" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>2022</v>
+      </c>
+      <c r="B211">
+        <v>0.59194589261757902</v>
+      </c>
+      <c r="C211" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>2023</v>
+      </c>
+      <c r="B212">
+        <v>0.58919284904291103</v>
+      </c>
+      <c r="C212" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>2015</v>
+      </c>
+      <c r="B213">
+        <v>0.60107740269826304</v>
+      </c>
+      <c r="C213" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>2016</v>
+      </c>
+      <c r="B214">
+        <v>0.684829479544947</v>
+      </c>
+      <c r="C214" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>2017</v>
+      </c>
+      <c r="B215">
+        <v>0.68494720943635901</v>
+      </c>
+      <c r="C215" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>2018</v>
+      </c>
+      <c r="B216">
+        <v>0.68706311276163801</v>
+      </c>
+      <c r="C216" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>2019</v>
+      </c>
+      <c r="B217">
+        <v>0.685159992106252</v>
+      </c>
+      <c r="C217" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>2020</v>
+      </c>
+      <c r="B218">
+        <v>0.69311291181718704</v>
+      </c>
+      <c r="C218" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>2021</v>
+      </c>
+      <c r="B219">
+        <v>0.694015945626411</v>
+      </c>
+      <c r="C219" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>2022</v>
+      </c>
+      <c r="B220">
+        <v>0.68071080123957295</v>
+      </c>
+      <c r="C220" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>2023</v>
+      </c>
+      <c r="B221">
+        <v>0.67887739363593502</v>
+      </c>
+      <c r="C221" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>2015</v>
+      </c>
+      <c r="B222">
+        <v>0.68897519868915102</v>
+      </c>
+      <c r="C222" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>2016</v>
+      </c>
+      <c r="B223">
+        <v>0.65952335418616703</v>
+      </c>
+      <c r="C223" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>2017</v>
+      </c>
+      <c r="B224">
+        <v>0.63651138425350895</v>
+      </c>
+      <c r="C224" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>2018</v>
+      </c>
+      <c r="B225">
+        <v>0.63385186147816897</v>
+      </c>
+      <c r="C225" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>2019</v>
+      </c>
+      <c r="B226">
+        <v>0.63038264975527103</v>
+      </c>
+      <c r="C226" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>2020</v>
+      </c>
+      <c r="B227">
+        <v>0.62281696717741197</v>
+      </c>
+      <c r="C227" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>2021</v>
+      </c>
+      <c r="B228">
+        <v>0.62022786273313202</v>
+      </c>
+      <c r="C228" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>2022</v>
+      </c>
+      <c r="B229">
+        <v>0.57043207923782302</v>
+      </c>
+      <c r="C229" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>2023</v>
+      </c>
+      <c r="B230">
+        <v>0.56890523483218403</v>
+      </c>
+      <c r="C230" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>2015</v>
+      </c>
+      <c r="B231">
+        <v>0.66701613215258004</v>
+      </c>
+      <c r="C231" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>2016</v>
+      </c>
+      <c r="B232">
+        <v>0.67917492218110798</v>
+      </c>
+      <c r="C232" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>2017</v>
+      </c>
+      <c r="B233">
+        <v>0.68207528364189296</v>
+      </c>
+      <c r="C233" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>2018</v>
+      </c>
+      <c r="B234">
+        <v>0.68263363800586296</v>
+      </c>
+      <c r="C234" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>2019</v>
+      </c>
+      <c r="B235">
+        <v>0.68088036124240303</v>
+      </c>
+      <c r="C235" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>2020</v>
+      </c>
+      <c r="B236">
+        <v>0.67607114986231998</v>
+      </c>
+      <c r="C236" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>2021</v>
+      </c>
+      <c r="B237">
+        <v>0.67860712901227105</v>
+      </c>
+      <c r="C237" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>2022</v>
+      </c>
+      <c r="B238">
+        <v>0.66523880054337103</v>
+      </c>
+      <c r="C238" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>2023</v>
+      </c>
+      <c r="B239">
+        <v>0.66427546452453201</v>
+      </c>
+      <c r="C239" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>2015</v>
+      </c>
+      <c r="B240">
+        <v>0.68010984313324896</v>
+      </c>
+      <c r="C240" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>2016</v>
+      </c>
+      <c r="B241">
+        <v>0.503348704624628</v>
+      </c>
+      <c r="C241" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>2017</v>
+      </c>
+      <c r="B242">
+        <v>0.51585300026332803</v>
+      </c>
+      <c r="C242" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>2018</v>
+      </c>
+      <c r="B243">
+        <v>0.51798797510230499</v>
+      </c>
+      <c r="C243" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>2019</v>
+      </c>
+      <c r="B244">
+        <v>0.51326860430463495</v>
+      </c>
+      <c r="C244" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>2020</v>
+      </c>
+      <c r="B245">
+        <v>0.50614271854538095</v>
+      </c>
+      <c r="C245" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>2021</v>
+      </c>
+      <c r="B246">
+        <v>0.52352268078987896</v>
+      </c>
+      <c r="C246" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>2022</v>
+      </c>
+      <c r="B247">
+        <v>0.52182620645794398</v>
+      </c>
+      <c r="C247" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>2023</v>
+      </c>
+      <c r="B248">
+        <v>0.52336494888102802</v>
+      </c>
+      <c r="C248" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>2015</v>
+      </c>
+      <c r="B249">
+        <v>0.447790913652717</v>
+      </c>
+      <c r="C249" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>2016</v>
+      </c>
+      <c r="B250">
+        <v>0.66801688543391902</v>
+      </c>
+      <c r="C250" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>2017</v>
+      </c>
+      <c r="B251">
+        <v>0.66918630876892704</v>
+      </c>
+      <c r="C251" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>2018</v>
+      </c>
+      <c r="B252">
+        <v>0.66957677993907505</v>
+      </c>
+      <c r="C252" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>2019</v>
+      </c>
+      <c r="B253">
+        <v>0.66526907734037199</v>
+      </c>
+      <c r="C253" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>2020</v>
+      </c>
+      <c r="B254">
+        <v>0.66403607842966705</v>
+      </c>
+      <c r="C254" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>2021</v>
+      </c>
+      <c r="B255">
+        <v>0.64720158405307704</v>
+      </c>
+      <c r="C255" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>2022</v>
+      </c>
+      <c r="B256">
+        <v>0.64357419468681198</v>
+      </c>
+      <c r="C256" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>2023</v>
+      </c>
+      <c r="B257">
+        <v>0.64100982877847901</v>
+      </c>
+      <c r="C257" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>2015</v>
+      </c>
+      <c r="B258">
+        <v>0.66923203332993697</v>
+      </c>
+      <c r="C258" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>2016</v>
+      </c>
+      <c r="B259">
+        <v>0.48717258420837001</v>
+      </c>
+      <c r="C259" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>2017</v>
+      </c>
+      <c r="B260">
+        <v>0.488883953837079</v>
+      </c>
+      <c r="C260" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>2018</v>
+      </c>
+      <c r="B261">
+        <v>0.48990490731147801</v>
+      </c>
+      <c r="C261" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>2019</v>
+      </c>
+      <c r="B262">
+        <v>0.489788270817195</v>
+      </c>
+      <c r="C262" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>2020</v>
+      </c>
+      <c r="B263">
+        <v>0.49348828381359799</v>
+      </c>
+      <c r="C263" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>2021</v>
+      </c>
+      <c r="B264">
+        <v>0.52032954536217502</v>
+      </c>
+      <c r="C264" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>2022</v>
+      </c>
+      <c r="B265">
+        <v>0.50155555258039497</v>
+      </c>
+      <c r="C265" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>2023</v>
+      </c>
+      <c r="B266">
+        <v>0.50427150693399503</v>
+      </c>
+      <c r="C266" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>2015</v>
+      </c>
+      <c r="B267">
+        <v>0.48667024875769299</v>
+      </c>
+      <c r="C267" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>2016</v>
+      </c>
+      <c r="B268">
+        <v>0.42054658673818801</v>
+      </c>
+      <c r="C268" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>2017</v>
+      </c>
+      <c r="B269">
+        <v>0.42346797982476397</v>
+      </c>
+      <c r="C269" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>2018</v>
+      </c>
+      <c r="B270">
+        <v>0.43647580292663002</v>
+      </c>
+      <c r="C270" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>2019</v>
+      </c>
+      <c r="B271">
+        <v>0.44436584288401698</v>
+      </c>
+      <c r="C271" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>2020</v>
+      </c>
+      <c r="B272">
+        <v>0.43979188913803102</v>
+      </c>
+      <c r="C272" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>2021</v>
+      </c>
+      <c r="B273">
+        <v>0.433491733552827</v>
+      </c>
+      <c r="C273" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>2022</v>
+      </c>
+      <c r="B274">
+        <v>0.45527591416907998</v>
+      </c>
+      <c r="C274" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>2023</v>
+      </c>
+      <c r="B275">
+        <v>0.45863760405527998</v>
+      </c>
+      <c r="C275" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>2015</v>
+      </c>
+      <c r="B276">
+        <v>0.42402633706354098</v>
+      </c>
+      <c r="C276" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>2016</v>
+      </c>
+      <c r="B277">
+        <v>0.28501978076870199</v>
+      </c>
+      <c r="C277" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>2017</v>
+      </c>
+      <c r="B278">
+        <v>0.277194122429194</v>
+      </c>
+      <c r="C278" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>2018</v>
+      </c>
+      <c r="B279">
+        <v>0.26331790282209799</v>
+      </c>
+      <c r="C279" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>2019</v>
+      </c>
+      <c r="B280">
+        <v>0.26150579522602302</v>
+      </c>
+      <c r="C280" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>2020</v>
+      </c>
+      <c r="B281">
+        <v>0.26230449707479803</v>
+      </c>
+      <c r="C281" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>2021</v>
+      </c>
+      <c r="B282">
+        <v>0.265207031825618</v>
+      </c>
+      <c r="C282" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>2022</v>
+      </c>
+      <c r="B283">
+        <v>0.27620904441149802</v>
+      </c>
+      <c r="C283" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>2023</v>
+      </c>
+      <c r="B284">
+        <v>0.28315997213668098</v>
+      </c>
+      <c r="C284" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>2015</v>
+      </c>
+      <c r="B285">
+        <v>0.26784375638615299</v>
+      </c>
+      <c r="C285" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>2016</v>
+      </c>
+      <c r="B286">
+        <v>0.65322916404715103</v>
+      </c>
+      <c r="C286" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>2017</v>
+      </c>
+      <c r="B287">
+        <v>0.65084770243679002</v>
+      </c>
+      <c r="C287" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>2018</v>
+      </c>
+      <c r="B288">
+        <v>0.65215805148883499</v>
+      </c>
+      <c r="C288" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>2019</v>
+      </c>
+      <c r="B289">
+        <v>0.64995271019022705</v>
+      </c>
+      <c r="C289" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>2020</v>
+      </c>
+      <c r="B290">
+        <v>0.66030268487968402</v>
+      </c>
+      <c r="C290" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>2021</v>
+      </c>
+      <c r="B291">
+        <v>0.65359999995651996</v>
+      </c>
+      <c r="C291" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>2022</v>
+      </c>
+      <c r="B292">
+        <v>0.61534047411825499</v>
+      </c>
+      <c r="C292" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>2023</v>
+      </c>
+      <c r="B293">
+        <v>0.64777367359660798</v>
+      </c>
+      <c r="C293" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>2015</v>
+      </c>
+      <c r="B294">
+        <v>0.64860318099474601</v>
+      </c>
+      <c r="C294" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>2016</v>
+      </c>
+      <c r="B295">
+        <v>0.438363774640113</v>
+      </c>
+      <c r="C295" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>2017</v>
+      </c>
+      <c r="B296">
+        <v>0.44220491397509298</v>
+      </c>
+      <c r="C296" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>2018</v>
+      </c>
+      <c r="B297">
+        <v>0.44784701743862898</v>
+      </c>
+      <c r="C297" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>2019</v>
+      </c>
+      <c r="B298">
+        <v>0.45364570177644098</v>
+      </c>
+      <c r="C298" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>2020</v>
+      </c>
+      <c r="B299">
+        <v>0.45954781872132</v>
+      </c>
+      <c r="C299" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>2021</v>
+      </c>
+      <c r="B300">
+        <v>0.46705944570435798</v>
+      </c>
+      <c r="C300" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>2022</v>
+      </c>
+      <c r="B301">
+        <v>0.47612799369464398</v>
+      </c>
+      <c r="C301" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>2023</v>
+      </c>
+      <c r="B302">
+        <v>0.48420088763686198</v>
+      </c>
+      <c r="C302" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>2015</v>
+      </c>
+      <c r="B303">
+        <v>0.43455949607949801</v>
+      </c>
+      <c r="C303" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>2016</v>
+      </c>
+      <c r="B304">
+        <v>0.61922910088300498</v>
+      </c>
+      <c r="C304" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>2017</v>
+      </c>
+      <c r="B305">
+        <v>0.61827049924700705</v>
+      </c>
+      <c r="C305" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>2018</v>
+      </c>
+      <c r="B306">
+        <v>0.62009674508615398</v>
+      </c>
+      <c r="C306" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>2019</v>
+      </c>
+      <c r="B307">
+        <v>0.62984666729674599</v>
+      </c>
+      <c r="C307" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>2020</v>
+      </c>
+      <c r="B308">
+        <v>0.62335607870290599</v>
+      </c>
+      <c r="C308" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>2021</v>
+      </c>
+      <c r="B309">
+        <v>0.64312889632874204</v>
+      </c>
+      <c r="C309" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>2022</v>
+      </c>
+      <c r="B310">
+        <v>0.610522156189925</v>
+      </c>
+      <c r="C310" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>2023</v>
+      </c>
+      <c r="B311">
+        <v>0.61511042524327197</v>
+      </c>
+      <c r="C311" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>2015</v>
+      </c>
+      <c r="B312">
+        <v>0.60676107373364196</v>
+      </c>
+      <c r="C312" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>2016</v>
+      </c>
+      <c r="B313">
+        <v>0.65808623178530101</v>
+      </c>
+      <c r="C313" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>2017</v>
+      </c>
+      <c r="B314">
+        <v>0.66149114055051395</v>
+      </c>
+      <c r="C314" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>2018</v>
+      </c>
+      <c r="B315">
+        <v>0.66668101350978104</v>
+      </c>
+      <c r="C315" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>2019</v>
+      </c>
+      <c r="B316">
+        <v>0.68617894061055595</v>
+      </c>
+      <c r="C316" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>2020</v>
+      </c>
+      <c r="B317">
+        <v>0.67999348794247605</v>
+      </c>
+      <c r="C317" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>2021</v>
+      </c>
+      <c r="B318">
+        <v>0.67949448810959401</v>
+      </c>
+      <c r="C318" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>2022</v>
+      </c>
+      <c r="B319">
+        <v>0.64272779660131796</v>
+      </c>
+      <c r="C319" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>2023</v>
+      </c>
+      <c r="B320">
+        <v>0.64195491350494005</v>
+      </c>
+      <c r="C320" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <v>2015</v>
+      </c>
+      <c r="B321">
+        <v>0.656576987813556</v>
+      </c>
+      <c r="C321" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>2016</v>
+      </c>
+      <c r="B322">
+        <v>0.61837384867756295</v>
+      </c>
+      <c r="C322" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>2017</v>
+      </c>
+      <c r="B323">
+        <v>0.61444927041969299</v>
+      </c>
+      <c r="C323" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>2018</v>
+      </c>
+      <c r="B324">
+        <v>0.61373727282127899</v>
+      </c>
+      <c r="C324" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <v>2019</v>
+      </c>
+      <c r="B325">
+        <v>0.61134549368239699</v>
+      </c>
+      <c r="C325" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>2020</v>
+      </c>
+      <c r="B326">
+        <v>0.60969526508731697</v>
+      </c>
+      <c r="C326" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <v>2021</v>
+      </c>
+      <c r="B327">
+        <v>0.61121293832350099</v>
+      </c>
+      <c r="C327" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <v>2022</v>
+      </c>
+      <c r="B328">
+        <v>0.60626498044810795</v>
+      </c>
+      <c r="C328" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <v>2023</v>
+      </c>
+      <c r="B329">
+        <v>0.60753099380120701</v>
+      </c>
+      <c r="C329" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <v>2015</v>
+      </c>
+      <c r="B330">
+        <v>0.61979911897687601</v>
+      </c>
+      <c r="C330" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <v>2016</v>
+      </c>
+      <c r="B331">
+        <v>0.65387669562387996</v>
+      </c>
+      <c r="C331" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <v>2017</v>
+      </c>
+      <c r="B332">
+        <v>0.65320842790145806</v>
+      </c>
+      <c r="C332" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <v>2018</v>
+      </c>
+      <c r="B333">
+        <v>0.64949091212020804</v>
+      </c>
+      <c r="C333" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <v>2019</v>
+      </c>
+      <c r="B334">
+        <v>0.65001356104628005</v>
+      </c>
+      <c r="C334" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <v>2020</v>
+      </c>
+      <c r="B335">
+        <v>0.64734943646036003</v>
+      </c>
+      <c r="C335" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <v>2021</v>
+      </c>
+      <c r="B336">
+        <v>0.65055178949270398</v>
+      </c>
+      <c r="C336" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <v>2022</v>
+      </c>
+      <c r="B337">
+        <v>0.65573938841394797</v>
+      </c>
+      <c r="C337" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>2023</v>
+      </c>
+      <c r="B338">
+        <v>0.66052951733437204</v>
+      </c>
+      <c r="C338" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <v>2015</v>
+      </c>
+      <c r="B339">
+        <v>0.65309228120704199</v>
+      </c>
+      <c r="C339" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <v>2016</v>
+      </c>
+      <c r="B340">
+        <v>0.52987034528972499</v>
+      </c>
+      <c r="C340" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341">
+        <v>2017</v>
+      </c>
+      <c r="B341">
+        <v>0.52734802011662296</v>
+      </c>
+      <c r="C341" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A342">
+        <v>2018</v>
+      </c>
+      <c r="B342">
+        <v>0.52598473537009705</v>
+      </c>
+      <c r="C342" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343">
+        <v>2019</v>
+      </c>
+      <c r="B343">
+        <v>0.52099645591142596</v>
+      </c>
+      <c r="C343" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344">
+        <v>2020</v>
+      </c>
+      <c r="B344">
+        <v>0.52337855030443003</v>
+      </c>
+      <c r="C344" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A345">
+        <v>2021</v>
+      </c>
+      <c r="B345">
+        <v>0.52893196783654595</v>
+      </c>
+      <c r="C345" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A346">
+        <v>2022</v>
+      </c>
+      <c r="B346">
+        <v>0.52526780823625396</v>
+      </c>
+      <c r="C346" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A347">
+        <v>2023</v>
+      </c>
+      <c r="B347">
+        <v>0.52318820319604398</v>
+      </c>
+      <c r="C347" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A348">
+        <v>2015</v>
+      </c>
+      <c r="B348">
+        <v>0.54643122511925801</v>
+      </c>
+      <c r="C348" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A349">
+        <v>2016</v>
+      </c>
+      <c r="B349">
+        <v>0.53311030500808199</v>
+      </c>
+      <c r="C349" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A350">
+        <v>2017</v>
+      </c>
+      <c r="B350">
+        <v>0.53390834245960195</v>
+      </c>
+      <c r="C350" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A351">
+        <v>2018</v>
+      </c>
+      <c r="B351">
+        <v>0.53713407644281896</v>
+      </c>
+      <c r="C351" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A352">
+        <v>2019</v>
+      </c>
+      <c r="B352">
+        <v>0.54041871508129702</v>
+      </c>
+      <c r="C352" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A353">
+        <v>2020</v>
+      </c>
+      <c r="B353">
+        <v>0.54063644791069698</v>
+      </c>
+      <c r="C353" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A354">
+        <v>2021</v>
+      </c>
+      <c r="B354">
+        <v>0.54101779273116202</v>
+      </c>
+      <c r="C354" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A355">
+        <v>2022</v>
+      </c>
+      <c r="B355">
+        <v>0.56250368107420201</v>
+      </c>
+      <c r="C355" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A356">
+        <v>2023</v>
+      </c>
+      <c r="B356">
+        <v>0.56655068271341602</v>
+      </c>
+      <c r="C356" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A357">
+        <v>2015</v>
+      </c>
+      <c r="B357">
+        <v>0.53219003615500904</v>
+      </c>
+      <c r="C357" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A358">
+        <v>2015</v>
+      </c>
+      <c r="B358">
+        <v>0.79529796920948903</v>
+      </c>
+      <c r="C358" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A359">
+        <v>2018</v>
+      </c>
+      <c r="B359">
+        <v>0.79547686001572604</v>
+      </c>
+      <c r="C359" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A360">
+        <v>2019</v>
+      </c>
+      <c r="B360">
+        <v>0.79240160720418296</v>
+      </c>
+      <c r="C360" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A361">
+        <v>2016</v>
+      </c>
+      <c r="B361">
+        <v>0.79258034059833804</v>
+      </c>
+      <c r="C361" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A362">
+        <v>2017</v>
+      </c>
+      <c r="B362">
+        <v>0.78888720919719801</v>
+      </c>
+      <c r="C362" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A363">
+        <v>2016</v>
+      </c>
+      <c r="B363">
+        <v>0.57156349186036004</v>
+      </c>
+      <c r="C363" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A364">
+        <v>2017</v>
+      </c>
+      <c r="B364">
+        <v>0.56977242681936902</v>
+      </c>
+      <c r="C364" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A365">
+        <v>2018</v>
+      </c>
+      <c r="B365">
+        <v>0.571950033287146</v>
+      </c>
+      <c r="C365" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A366">
+        <v>2019</v>
+      </c>
+      <c r="B366">
+        <v>0.57110470171502503</v>
+      </c>
+      <c r="C366" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A367">
+        <v>2020</v>
+      </c>
+      <c r="B367">
+        <v>0.568930645875943</v>
+      </c>
+      <c r="C367" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A368">
+        <v>2021</v>
+      </c>
+      <c r="B368">
+        <v>0.57035189573340705</v>
+      </c>
+      <c r="C368" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A369">
+        <v>2022</v>
+      </c>
+      <c r="B369">
+        <v>0.56953776977368997</v>
+      </c>
+      <c r="C369" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A370">
+        <v>2023</v>
+      </c>
+      <c r="B370">
+        <v>0.57092603594180802</v>
+      </c>
+      <c r="C370" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A371">
+        <v>2015</v>
+      </c>
+      <c r="B371">
+        <v>0.58474342149134595</v>
+      </c>
+      <c r="C371" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A372">
+        <v>2016</v>
+      </c>
+      <c r="B372">
+        <v>0.56562775973136703</v>
+      </c>
+      <c r="C372" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A373">
+        <v>2017</v>
+      </c>
+      <c r="B373">
+        <v>0.56264505199498505</v>
+      </c>
+      <c r="C373" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A374">
+        <v>2018</v>
+      </c>
+      <c r="B374">
+        <v>0.56243803602895803</v>
+      </c>
+      <c r="C374" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A375">
+        <v>2019</v>
+      </c>
+      <c r="B375">
+        <v>0.56427720970710404</v>
+      </c>
+      <c r="C375" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A376">
+        <v>2020</v>
+      </c>
+      <c r="B376">
+        <v>0.55338435812366504</v>
+      </c>
+      <c r="C376" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A377">
+        <v>2021</v>
+      </c>
+      <c r="B377">
+        <v>0.54881106682563296</v>
+      </c>
+      <c r="C377" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A378">
+        <v>2022</v>
+      </c>
+      <c r="B378">
+        <v>0.55619386832355799</v>
+      </c>
+      <c r="C378" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A379">
+        <v>2023</v>
+      </c>
+      <c r="B379">
+        <v>0.55328590297770697</v>
+      </c>
+      <c r="C379" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A380">
+        <v>2015</v>
+      </c>
+      <c r="B380">
+        <v>0.56826787388595301</v>
+      </c>
+      <c r="C380" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A381">
+        <v>2016</v>
+      </c>
+      <c r="B381">
+        <v>0.73294952721226503</v>
+      </c>
+      <c r="C381" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A382">
+        <v>2017</v>
+      </c>
+      <c r="B382">
+        <v>0.72981636220614898</v>
+      </c>
+      <c r="C382" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A383">
+        <v>2018</v>
+      </c>
+      <c r="B383">
+        <v>0.72891093646678895</v>
+      </c>
+      <c r="C383" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A384">
+        <v>2019</v>
+      </c>
+      <c r="B384">
+        <v>0.72380037371002504</v>
+      </c>
+      <c r="C384" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A385">
+        <v>2020</v>
+      </c>
+      <c r="B385">
+        <v>0.724275328639572</v>
+      </c>
+      <c r="C385" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A386">
+        <v>2021</v>
+      </c>
+      <c r="B386">
+        <v>0.72136779226699499</v>
+      </c>
+      <c r="C386" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A387">
+        <v>2022</v>
+      </c>
+      <c r="B387">
+        <v>0.71704984944377204</v>
+      </c>
+      <c r="C387" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A388">
+        <v>2023</v>
+      </c>
+      <c r="B388">
+        <v>0.71962615456427903</v>
+      </c>
+      <c r="C388" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A389">
+        <v>2015</v>
+      </c>
+      <c r="B389">
+        <v>0.736648171511182</v>
+      </c>
+      <c r="C389" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A390">
+        <v>2016</v>
+      </c>
+      <c r="B390">
+        <v>0.66182810555930005</v>
+      </c>
+      <c r="C390" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A391">
+        <v>2017</v>
+      </c>
+      <c r="B391">
+        <v>0.65880763370524797</v>
+      </c>
+      <c r="C391" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A392">
+        <v>2018</v>
+      </c>
+      <c r="B392">
+        <v>0.66053262871526297</v>
+      </c>
+      <c r="C392" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A393">
+        <v>2019</v>
+      </c>
+      <c r="B393">
+        <v>0.67905370857616698</v>
+      </c>
+      <c r="C393" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A394">
+        <v>2020</v>
+      </c>
+      <c r="B394">
+        <v>0.67933988709513604</v>
+      </c>
+      <c r="C394" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A395">
+        <v>2021</v>
+      </c>
+      <c r="B395">
+        <v>0.67937882262928195</v>
+      </c>
+      <c r="C395" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A396">
+        <v>2022</v>
+      </c>
+      <c r="B396">
+        <v>0.62876150187156998</v>
+      </c>
+      <c r="C396" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A397">
+        <v>2023</v>
+      </c>
+      <c r="B397">
+        <v>0.62886367758596295</v>
+      </c>
+      <c r="C397" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A398">
+        <v>2015</v>
+      </c>
+      <c r="B398">
+        <v>0.66311056111939404</v>
+      </c>
+      <c r="C398" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A399">
+        <v>2016</v>
+      </c>
+      <c r="B399">
+        <v>0.60740546581640398</v>
+      </c>
+      <c r="C399" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A400">
+        <v>2017</v>
+      </c>
+      <c r="B400">
+        <v>0.60516263391314196</v>
+      </c>
+      <c r="C400" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A401">
+        <v>2018</v>
+      </c>
+      <c r="B401">
+        <v>0.60161790893204004</v>
+      </c>
+      <c r="C401" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A402">
+        <v>2019</v>
+      </c>
+      <c r="B402">
+        <v>0.59792978862692003</v>
+      </c>
+      <c r="C402" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A403">
+        <v>2020</v>
+      </c>
+      <c r="B403">
+        <v>0.59732711768626001</v>
+      </c>
+      <c r="C403" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A404">
+        <v>2021</v>
+      </c>
+      <c r="B404">
+        <v>0.59982944245630598</v>
+      </c>
+      <c r="C404" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A405">
+        <v>2022</v>
+      </c>
+      <c r="B405">
+        <v>0.59158350861420494</v>
+      </c>
+      <c r="C405" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A406">
+        <v>2023</v>
+      </c>
+      <c r="B406">
+        <v>0.59116274494074195</v>
+      </c>
+      <c r="C406" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A407">
+        <v>2015</v>
+      </c>
+      <c r="B407">
+        <v>0.61178433849789704</v>
+      </c>
+      <c r="C407" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A408">
+        <v>2016</v>
+      </c>
+      <c r="B408">
+        <v>0.58110555667068897</v>
+      </c>
+      <c r="C408" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A409">
+        <v>2017</v>
+      </c>
+      <c r="B409">
+        <v>0.60002548887901697</v>
+      </c>
+      <c r="C409" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A410">
+        <v>2018</v>
+      </c>
+      <c r="B410">
+        <v>0.59904190982681604</v>
+      </c>
+      <c r="C410" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A411">
+        <v>2019</v>
+      </c>
+      <c r="B411">
+        <v>0.58504556139858299</v>
+      </c>
+      <c r="C411" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A412">
+        <v>2020</v>
+      </c>
+      <c r="B412">
+        <v>0.57200651014167403</v>
+      </c>
+      <c r="C412" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A413">
+        <v>2021</v>
+      </c>
+      <c r="B413">
+        <v>0.56836154506314296</v>
+      </c>
+      <c r="C413" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A414">
+        <v>2022</v>
+      </c>
+      <c r="B414">
+        <v>0.53483607605827999</v>
+      </c>
+      <c r="C414" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A415">
+        <v>2023</v>
+      </c>
+      <c r="B415">
+        <v>0.53343591241427302</v>
+      </c>
+      <c r="C415" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A416">
+        <v>2015</v>
+      </c>
+      <c r="B416">
+        <v>0.60225991109141597</v>
+      </c>
+      <c r="C416" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A417">
+        <v>2016</v>
+      </c>
+      <c r="B417">
+        <v>0.45440789315118102</v>
+      </c>
+      <c r="C417" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A418">
+        <v>2017</v>
+      </c>
+      <c r="B418">
+        <v>0.433757025427985</v>
+      </c>
+      <c r="C418" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A419">
+        <v>2018</v>
+      </c>
+      <c r="B419">
+        <v>0.43359630043592001</v>
+      </c>
+      <c r="C419" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A420">
+        <v>2019</v>
+      </c>
+      <c r="B420">
+        <v>0.51600740821553703</v>
+      </c>
+      <c r="C420" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A421">
+        <v>2020</v>
+      </c>
+      <c r="B421">
+        <v>0.42111945386207</v>
+      </c>
+      <c r="C421" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A422">
+        <v>2021</v>
+      </c>
+      <c r="B422">
+        <v>0.51716700058414</v>
+      </c>
+      <c r="C422" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A423">
+        <v>2022</v>
+      </c>
+      <c r="B423">
+        <v>0.51337952293186095</v>
+      </c>
+      <c r="C423" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A424">
+        <v>2023</v>
+      </c>
+      <c r="B424">
+        <v>0.51398157158231905</v>
+      </c>
+      <c r="C424" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A425">
+        <v>2015</v>
+      </c>
+      <c r="B425">
+        <v>0.45324772862400298</v>
+      </c>
+      <c r="C425" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A426">
+        <v>2016</v>
+      </c>
+      <c r="B426">
+        <v>0.67461262892366203</v>
+      </c>
+      <c r="C426" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A427">
+        <v>2017</v>
+      </c>
+      <c r="B427">
+        <v>0.67609452255775104</v>
+      </c>
+      <c r="C427" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A428">
+        <v>2018</v>
+      </c>
+      <c r="B428">
+        <v>0.63812825020256203</v>
+      </c>
+      <c r="C428" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A429">
+        <v>2019</v>
+      </c>
+      <c r="B429">
+        <v>0.638121880433828</v>
+      </c>
+      <c r="C429" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A430">
+        <v>2020</v>
+      </c>
+      <c r="B430">
+        <v>0.63663958033993995</v>
+      </c>
+      <c r="C430" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A431">
+        <v>2021</v>
+      </c>
+      <c r="B431">
+        <v>0.63446175722716902</v>
+      </c>
+      <c r="C431" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A432">
+        <v>2022</v>
+      </c>
+      <c r="B432">
+        <v>0.62753698412007497</v>
+      </c>
+      <c r="C432" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A433">
+        <v>2023</v>
+      </c>
+      <c r="B433">
+        <v>0.62566760912979402</v>
+      </c>
+      <c r="C433" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A434">
+        <v>2015</v>
+      </c>
+      <c r="B434">
+        <v>0.67375627501805802</v>
+      </c>
+      <c r="C434" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A435">
+        <v>2016</v>
+      </c>
+      <c r="B435">
+        <v>0.59967992603090403</v>
+      </c>
+      <c r="C435" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A436">
+        <v>2017</v>
+      </c>
+      <c r="B436">
+        <v>0.64215418107065603</v>
+      </c>
+      <c r="C436" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A437">
+        <v>2018</v>
+      </c>
+      <c r="B437">
+        <v>0.61089240244003495</v>
+      </c>
+      <c r="C437" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A438">
+        <v>2019</v>
+      </c>
+      <c r="B438">
+        <v>0.63393855644319796</v>
+      </c>
+      <c r="C438" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A439">
+        <v>2020</v>
+      </c>
+      <c r="B439">
+        <v>0.59569621673203799</v>
+      </c>
+      <c r="C439" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A440">
+        <v>2021</v>
+      </c>
+      <c r="B440">
+        <v>0.63312663253003898</v>
+      </c>
+      <c r="C440" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A441">
+        <v>2022</v>
+      </c>
+      <c r="B441">
+        <v>0.64209129211279703</v>
+      </c>
+      <c r="C441" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A442">
+        <v>2023</v>
+      </c>
+      <c r="B442">
+        <v>0.64145710623928398</v>
+      </c>
+      <c r="C442" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A443">
+        <v>2015</v>
+      </c>
+      <c r="B443">
+        <v>0.59987058539563298</v>
+      </c>
+      <c r="C443" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A444">
+        <v>2016</v>
+      </c>
+      <c r="B444">
+        <v>0.63510572263331599</v>
+      </c>
+      <c r="C444" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A445">
+        <v>2017</v>
+      </c>
+      <c r="B445">
+        <v>0.63333915469502799</v>
+      </c>
+      <c r="C445" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A446">
+        <v>2018</v>
+      </c>
+      <c r="B446">
+        <v>0.63021909516271402</v>
+      </c>
+      <c r="C446" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A447">
+        <v>2019</v>
+      </c>
+      <c r="B447">
+        <v>0.62226409948068595</v>
+      </c>
+      <c r="C447" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A448">
+        <v>2020</v>
+      </c>
+      <c r="B448">
+        <v>0.621808662452356</v>
+      </c>
+      <c r="C448" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A449">
+        <v>2021</v>
+      </c>
+      <c r="B449">
+        <v>0.62848014791154005</v>
+      </c>
+      <c r="C449" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A450">
+        <v>2022</v>
+      </c>
+      <c r="B450">
+        <v>0.58074704131826305</v>
+      </c>
+      <c r="C450" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A451">
+        <v>2023</v>
+      </c>
+      <c r="B451">
+        <v>0.58401710739151802</v>
+      </c>
+      <c r="C451" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A452">
+        <v>2015</v>
+      </c>
+      <c r="B452">
+        <v>0.63105134073103397</v>
+      </c>
+      <c r="C452" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A453">
+        <v>2016</v>
+      </c>
+      <c r="B453">
+        <v>0.67076766671428201</v>
+      </c>
+      <c r="C453" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A454">
+        <v>2017</v>
+      </c>
+      <c r="B454">
+        <v>0.67113445908178604</v>
+      </c>
+      <c r="C454" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A455">
+        <v>2018</v>
+      </c>
+      <c r="B455">
+        <v>0.67223677032402296</v>
+      </c>
+      <c r="C455" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A456">
+        <v>2019</v>
+      </c>
+      <c r="B456">
+        <v>0.66883252953071204</v>
+      </c>
+      <c r="C456" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A457">
+        <v>2020</v>
+      </c>
+      <c r="B457">
+        <v>0.65645372151108805</v>
+      </c>
+      <c r="C457" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A458">
+        <v>2021</v>
+      </c>
+      <c r="B458">
+        <v>0.66134863607898497</v>
+      </c>
+      <c r="C458" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A459">
+        <v>2022</v>
+      </c>
+      <c r="B459">
+        <v>0.66026212835640596</v>
+      </c>
+      <c r="C459" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A460">
+        <v>2023</v>
+      </c>
+      <c r="B460">
+        <v>0.65987836305279401</v>
+      </c>
+      <c r="C460" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A461">
+        <v>2015</v>
+      </c>
+      <c r="B461">
+        <v>0.67219802200285295</v>
+      </c>
+      <c r="C461" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A462">
+        <v>2016</v>
+      </c>
+      <c r="B462">
+        <v>0.43935818030666002</v>
+      </c>
+      <c r="C462" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A463">
+        <v>2017</v>
+      </c>
+      <c r="B463">
+        <v>0.44928639039254797</v>
+      </c>
+      <c r="C463" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A464">
+        <v>2018</v>
+      </c>
+      <c r="B464">
+        <v>0.45859019441094301</v>
+      </c>
+      <c r="C464" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A465">
+        <v>2019</v>
+      </c>
+      <c r="B465">
+        <v>0.449750898627443</v>
+      </c>
+      <c r="C465" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A466">
+        <v>2020</v>
+      </c>
+      <c r="B466">
+        <v>0.44931491623910502</v>
+      </c>
+      <c r="C466" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A467">
+        <v>2021</v>
+      </c>
+      <c r="B467">
+        <v>0.45207904646043501</v>
+      </c>
+      <c r="C467" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A468">
+        <v>2022</v>
+      </c>
+      <c r="B468">
+        <v>0.44987441794412703</v>
+      </c>
+      <c r="C468" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A469">
+        <v>2023</v>
+      </c>
+      <c r="B469">
+        <v>0.44885563950040402</v>
+      </c>
+      <c r="C469" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A470">
+        <v>2015</v>
+      </c>
+      <c r="B470">
+        <v>0.438982232180882</v>
+      </c>
+      <c r="C470" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/zzz_lib/code and data/data/Excel/metrics_national_care_gini.xlsx
+++ b/zzz_lib/code and data/data/Excel/metrics_national_care_gini.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9eaf80618f9c5e5a/Work Items/TheCareBoard/zzz_lib/code and data/data/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{03B04C33-A5C3-47FE-A69C-FFA027421461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{03B04C33-A5C3-47FE-A69C-FFA027421461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BFC0BA57-0B85-42FA-A0D3-00F7AA85897C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{4B7953FB-F96C-4E03-9401-5443DCC7788D}"/>
+    <workbookView xWindow="-24060" yWindow="-225" windowWidth="16815" windowHeight="12645" xr2:uid="{4B7953FB-F96C-4E03-9401-5443DCC7788D}"/>
   </bookViews>
   <sheets>
     <sheet name="metrics_national_care_gini" sheetId="1" r:id="rId1"/>
@@ -353,7 +353,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -484,6 +484,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -786,7 +793,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -829,11 +836,12 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -871,6 +879,7 @@
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="42" xr:uid="{D906BF09-AD40-431F-9803-7E3D25D363D1}"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
@@ -888,6 +897,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
